--- a/lm_lohkoketju_seurantalomake.xlsx
+++ b/lm_lohkoketju_seurantalomake.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Larty\OneDrive - Oulun ammattikorkeakoulu\OPN Lohkoketju\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Larty\gitrepo\ClassicCarChain\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -105,7 +105,7 @@
     <t>Jos haluat pysyä aikataulussa, joudut työskentelmään näin monta tuntia viikossa:</t>
   </si>
   <si>
-    <t>Ethereum/geth -harjoituksia. Testiverkon pystytys.</t>
+    <t>Ethereum/geth -harjoituksia. Testiverkon pystytys. Versionhallinnan käyttöönotto.</t>
   </si>
 </sst>
 </file>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
